--- a/data/trans_camb/P1802_2016_2023-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1802_2016_2023-Estudios-trans_camb.xlsx
@@ -567,10 +567,10 @@
         <v>1.638679349649197</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-3.059192236459291</v>
+        <v>-3.059192236459288</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.9992503894393823</v>
+        <v>-0.999250389439385</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-2.522262739176485</v>
+        <v>-2.059490514061902</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-6.857158234414642</v>
+        <v>-6.580575671334378</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-3.452820291034458</v>
+        <v>-3.711972724550439</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.401612667393986</v>
+        <v>5.503561252249349</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.6095014527153136</v>
+        <v>0.4781083338851131</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.696403499253997</v>
+        <v>1.573334745167482</v>
       </c>
     </row>
     <row r="7">
@@ -618,10 +618,10 @@
         <v>0.09793058376481359</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>-0.1312953499412047</v>
+        <v>-0.1312953499412046</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.04882077536314357</v>
+        <v>-0.04882077536314371</v>
       </c>
     </row>
     <row r="8">
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.1317543983242406</v>
+        <v>-0.1116871455985588</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2702692868951571</v>
+        <v>-0.2595141699793448</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.1593035166753466</v>
+        <v>-0.1656757495461211</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3597014640180971</v>
+        <v>0.3617092625104514</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.02717094138504339</v>
+        <v>0.02261786318365071</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0877516045042243</v>
+        <v>0.079981860475349</v>
       </c>
     </row>
     <row r="10">
@@ -670,7 +670,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.8376630957968895</v>
+        <v>0.8376630957968922</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.2509490645643986</v>
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.386486721013345</v>
+        <v>-1.339614457457297</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.979547760198928</v>
+        <v>-2.070882469124704</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.8263469655474646</v>
+        <v>-1.082752562795716</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.066591168072534</v>
+        <v>3.185255321558587</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.430727239365122</v>
+        <v>2.662680024843932</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.407364366653185</v>
+        <v>2.099209600874099</v>
       </c>
     </row>
     <row r="13">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="C13" s="6" t="n">
-        <v>0.06142783867970709</v>
+        <v>0.0614278386797073</v>
       </c>
       <c r="D13" s="6" t="n">
         <v>0.01447204409333135</v>
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.09385314734509172</v>
+        <v>-0.08878383599060291</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.1043775190866503</v>
+        <v>-0.1121075910566229</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05005225496290745</v>
+        <v>-0.06575605759000464</v>
       </c>
     </row>
     <row r="15">
@@ -755,13 +755,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2433708669149539</v>
+        <v>0.2553425727159228</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1537794774095387</v>
+        <v>0.1578747153868346</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1650664596925564</v>
+        <v>0.1428711061538869</v>
       </c>
     </row>
     <row r="16">
@@ -776,10 +776,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1.295977528753989</v>
+        <v>1.295977528753986</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>3.975446632886134</v>
+        <v>3.975446632886137</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>2.679214423157863</v>
@@ -793,13 +793,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.182463656875417</v>
+        <v>-2.911470840038728</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.1006893086158678</v>
+        <v>-0.1834964475999767</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.2378500921729404</v>
+        <v>-0.2443961256001579</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +810,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.507000578677427</v>
+        <v>5.64743675267292</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>8.495858001520576</v>
+        <v>8.167804840870742</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.491772895366901</v>
+        <v>5.535552854326459</v>
       </c>
     </row>
     <row r="19">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0.09614923600170393</v>
+        <v>0.09614923600170372</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>0.2403450940989988</v>
+        <v>0.240345094098999</v>
       </c>
       <c r="E19" s="6" t="n">
         <v>0.1784614905998136</v>
@@ -844,13 +844,13 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.2048188925409144</v>
+        <v>-0.1821957270283458</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.009100472668674742</v>
+        <v>-0.01026604776448428</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.01994809271946585</v>
+        <v>-0.02094883701793674</v>
       </c>
     </row>
     <row r="21">
@@ -861,13 +861,13 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5030688926121594</v>
+        <v>0.5130159205944615</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.6302527547340852</v>
+        <v>0.5828514869859748</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.4124884295161296</v>
+        <v>0.4085911675346045</v>
       </c>
     </row>
     <row r="22">
@@ -885,10 +885,10 @@
         <v>0.8731005255213559</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-0.1422501964781581</v>
+        <v>-0.1422501964781553</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.3649407981671682</v>
+        <v>0.3649407981671737</v>
       </c>
     </row>
     <row r="23">
@@ -899,13 +899,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.8569503684639919</v>
+        <v>-0.8253390224718172</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.794273843738779</v>
+        <v>-1.979516138662101</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.9576412811926308</v>
+        <v>-0.8968680940696633</v>
       </c>
     </row>
     <row r="24">
@@ -916,13 +916,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.595110431907987</v>
+        <v>2.747232277272308</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.749157489193339</v>
+        <v>1.525479573849003</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.678684092151004</v>
+        <v>1.627572318713609</v>
       </c>
     </row>
     <row r="25">
@@ -936,10 +936,10 @@
         <v>0.06104500841025813</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>-0.007528753978586165</v>
+        <v>-0.007528753978586019</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.02191870665439862</v>
+        <v>0.02191870665439895</v>
       </c>
     </row>
     <row r="26">
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.0550352010216119</v>
+        <v>-0.05543850193805949</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.09011003017067637</v>
+        <v>-0.09922649192576813</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.05655872155069853</v>
+        <v>-0.05136149674426795</v>
       </c>
     </row>
     <row r="27">
@@ -967,13 +967,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.1944064209911199</v>
+        <v>0.202289604319699</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.09863805501722084</v>
+        <v>0.08542232284018285</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.104765889981719</v>
+        <v>0.1032173799788018</v>
       </c>
     </row>
     <row r="28">
